--- a/graph/results/cz4071_summary.xlsx
+++ b/graph/results/cz4071_summary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edocsss/AEC/programming/CZ4071/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edocsss/AEC/programming/CZ4071/graph/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Degree Distribution</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Second Moment</t>
+  </si>
+  <si>
+    <t>Degree Exponent</t>
   </si>
 </sst>
 </file>
@@ -186,6 +189,94 @@
         <a:xfrm>
           <a:off x="7531100" y="101600"/>
           <a:ext cx="5998650" cy="4384800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>34600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>4413800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13817600" y="25400"/>
+          <a:ext cx="5851200" cy="4388400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>715600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>4562600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20281900" y="177800"/>
+          <a:ext cx="5846400" cy="4384800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -460,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,7 +565,7 @@
     <col min="13" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="383" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="383" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,8 +584,23 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -502,7 +608,7 @@
         <v>5.2650459515900199</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -510,9 +616,20 @@
         <v>2603.7240331662101</v>
       </c>
     </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2.3298608219000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="B1:AE1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/graph/results/cz4071_summary.xlsx
+++ b/graph/results/cz4071_summary.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Degree Distribution</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>Degree Exponent</t>
+  </si>
+  <si>
+    <t>Shortest Distance</t>
+  </si>
+  <si>
+    <t>Time (s)</t>
   </si>
 </sst>
 </file>
@@ -82,7 +88,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -92,6 +98,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE8"/>
+  <dimension ref="A1:AE10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -616,16 +625,53 @@
         <v>2603.7240331662101</v>
       </c>
     </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2.3298608219000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
+      <c r="A7" s="2">
+        <v>1000</v>
       </c>
       <c r="B7" s="2">
-        <v>2.3298608219000001</v>
+        <v>0.89600000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
+      <c r="A8" s="4">
+        <v>5000</v>
+      </c>
+      <c r="B8" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B9" s="2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>20000</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3545</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/graph/results/cz4071_summary.xlsx
+++ b/graph/results/cz4071_summary.xlsx
@@ -96,11 +96,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -120,94 +120,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>4498821</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1473200" y="114300"/>
-          <a:ext cx="5803900" cy="4384521"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>499550</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>4486400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7531100" y="101600"/>
-          <a:ext cx="5998650" cy="4384800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -227,7 +139,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -271,7 +183,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -286,6 +198,94 @@
         <a:xfrm>
           <a:off x="20281900" y="177800"/>
           <a:ext cx="5846400" cy="4384800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>4389120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7810500" y="0"/>
+          <a:ext cx="5852160" cy="4389120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>645160</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>4389120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="0"/>
+          <a:ext cx="5852160" cy="4389120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:AE10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -578,36 +578,36 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -650,7 +650,7 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>5000</v>
       </c>
       <c r="B8" s="2">

--- a/graph/results/cz4071_summary.xlsx
+++ b/graph/results/cz4071_summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13980" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1140" windowWidth="24960" windowHeight="13980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Degree Distribution</t>
   </si>
@@ -45,13 +45,37 @@
   </si>
   <si>
     <t>Time (s)</t>
+  </si>
+  <si>
+    <t>Kmax</t>
+  </si>
+  <si>
+    <t>Kmin</t>
+  </si>
+  <si>
+    <t>Shortest Path Distribution</t>
+  </si>
+  <si>
+    <t>Average Distance</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Global Clustering Coefficient</t>
+  </si>
+  <si>
+    <t>Average Clustering Coefficient</t>
+  </si>
+  <si>
+    <t>Clustering Coefficient Distribution</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -63,6 +87,30 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -85,10 +133,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -99,11 +149,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -258,8 +313,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>645160</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>391160</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>4389120</xdr:rowOff>
     </xdr:to>
@@ -560,57 +615,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE10"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="29.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="17.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18" style="2" customWidth="1"/>
+    <col min="6" max="11" width="10.83203125" style="2"/>
     <col min="12" max="12" width="13.1640625" style="2" customWidth="1"/>
     <col min="13" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="383" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -626,51 +684,102 @@
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>2.3298608219000001</v>
       </c>
     </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>1000</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B12" s="2">
         <v>0.89600000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>5000</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B13" s="2">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>10000</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B14" s="2">
         <v>486</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>20000</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B15" s="2">
         <v>3545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5.2793361262899996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -678,6 +787,7 @@
     <mergeCell ref="B1:AE1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/graph/results/cz4071_summary.xlsx
+++ b/graph/results/cz4071_summary.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Degree Distribution</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>Clustering Coefficient Distribution</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Expected Degree Exponent</t>
   </si>
 </sst>
 </file>
@@ -116,12 +125,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -138,7 +153,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -154,6 +169,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -340,6 +358,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1866900" y="0"/>
+          <a:ext cx="5852160" cy="4389120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>670560</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7391400" y="5499100"/>
           <a:ext cx="5852160" cy="4389120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -615,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE23"/>
+  <dimension ref="A1:AE24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -695,11 +757,33 @@
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="B5" s="2">
+        <v>28754</v>
+      </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1134890</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2987624</v>
+      </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -740,46 +824,74 @@
       <c r="B15" s="2">
         <v>3545</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="2">
         <v>5.2793361262899996</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <v>8.0802277761899993E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
+        <v>6.2185598180299999E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2.3298608219000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2.3580093123100001</v>
       </c>
     </row>
   </sheetData>

--- a/graph/results/cz4071_summary.xlsx
+++ b/graph/results/cz4071_summary.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1140" windowWidth="24960" windowHeight="13980" tabRatio="500"/>
+    <workbookView xWindow="26180" yWindow="1560" windowWidth="33160" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Degree Distribution</t>
   </si>
@@ -78,13 +79,85 @@
   </si>
   <si>
     <t>Expected Degree Exponent</t>
+  </si>
+  <si>
+    <t>Comparison between Real and Random Network</t>
+  </si>
+  <si>
+    <t>Average Degree</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>Number of Links</t>
+  </si>
+  <si>
+    <t>Scale Free</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Same as real network</t>
+  </si>
+  <si>
+    <t>Use formula</t>
+  </si>
+  <si>
+    <t>Use poisson distribution</t>
+  </si>
+  <si>
+    <t>Use expected number of links formula</t>
+  </si>
+  <si>
+    <t>How to get random/scale free values?</t>
+  </si>
+  <si>
+    <t>Use formula (assume kmax is the same as real network, then use kmax = kmin N^(1 / gamma - 1)</t>
+  </si>
+  <si>
+    <t>Use formula (small world and ultra small world)</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Still considerably accurate for both (please write down the formulas used to get this)</t>
+  </si>
+  <si>
+    <t>Poisson distribution does not follow the real network</t>
+  </si>
+  <si>
+    <t>Write the formula</t>
+  </si>
+  <si>
+    <t>Estimation is quite far. Write the formula</t>
+  </si>
+  <si>
+    <t>Write the formula after re-arranging</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0000E+00"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,6 +197,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -139,12 +220,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -153,7 +249,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -167,12 +263,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -269,7 +393,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20281900" y="177800"/>
+          <a:off x="22301200" y="177800"/>
           <a:ext cx="5846400" cy="4384800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -372,13 +496,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>774700</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>670560</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>147320</xdr:rowOff>
+      <xdr:rowOff>198120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -401,7 +525,447 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7391400" y="5499100"/>
+          <a:off x="7391400" y="5549900"/>
+          <a:ext cx="5852160" cy="4389120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>899160</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>172720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6616700" y="10401300"/>
+          <a:ext cx="5852160" cy="4389120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>327800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>137300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>934860</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>56020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="327800" y="10487800"/>
+          <a:ext cx="5852160" cy="4389120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>187960</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6908800" y="16192500"/>
+          <a:ext cx="5852160" cy="4389120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>518300</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>10300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1125360</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>132220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="518300" y="16050400"/>
+          <a:ext cx="5852160" cy="4389120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>607060</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="21323300"/>
+          <a:ext cx="5852160" cy="4389120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>734060</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>4617720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28092400" y="228600"/>
+          <a:ext cx="5852160" cy="4389120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>73660</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13398500" y="10553700"/>
+          <a:ext cx="5852160" cy="4389120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>899160</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6616700" y="21526500"/>
+          <a:ext cx="5852160" cy="4389120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>607060</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="27292300"/>
+          <a:ext cx="5852160" cy="4389120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>899160</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6616700" y="27216100"/>
           <a:ext cx="5852160" cy="4389120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -677,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE24"/>
+  <dimension ref="A1:AN24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="N110" sqref="N110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -694,42 +1258,51 @@
     <col min="13" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="383" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" ht="383" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -737,7 +1310,7 @@
         <v>5.2650459515900199</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -745,7 +1318,7 @@
         <v>2603.7240331662101</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -753,7 +1326,7 @@
         <v>2.3298608219000001</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -761,7 +1334,7 @@
         <v>28754</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -769,7 +1342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -777,7 +1350,7 @@
         <v>1134890</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -785,7 +1358,7 @@
         <v>2987624</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -793,7 +1366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1000</v>
       </c>
@@ -801,7 +1374,7 @@
         <v>0.89600000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>5000</v>
       </c>
@@ -809,7 +1382,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>10000</v>
       </c>
@@ -817,27 +1390,27 @@
         <v>486</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>20000</v>
       </c>
       <c r="B15" s="2">
         <v>3545</v>
       </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="E16" s="6"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
@@ -846,7 +1419,7 @@
       <c r="B18" s="2">
         <v>5.2793361262899996</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -855,7 +1428,7 @@
       <c r="B19" s="2">
         <v>24</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -896,10 +1469,275 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:AE1"/>
+    <mergeCell ref="B1:AN1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="8">
+        <v>5.2650459515900199</v>
+      </c>
+      <c r="C5" s="8">
+        <v>5.2650459515900199</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="8">
+        <v>1134890</v>
+      </c>
+      <c r="I5" s="13">
+        <v>4.6392999999999998E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5.2793361262899996</v>
+      </c>
+      <c r="C6" s="8">
+        <v>8.3933124360000004</v>
+      </c>
+      <c r="D6" s="12">
+        <v>9.2428860279999991</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2987624</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2987469.3</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="8">
+        <v>8.0802277761899993E-2</v>
+      </c>
+      <c r="C9" s="13">
+        <v>4.6392999999999998E-6</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8">
+        <v>28754</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="8">
+        <v>35733.31237</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2.3298608219000001</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2.3580093123100001</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>